--- a/データ整理2.xlsx
+++ b/データ整理2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryout\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAR_Murata_local2\HARMurata2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D7F4F-ACE1-49A7-A61D-D1165B599AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF40F1BA-A85D-47E7-B20C-100C53640163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" firstSheet="4" activeTab="6" xr2:uid="{2960E692-13C7-4C97-A099-087EA1DF380B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="4" activeTab="7" xr2:uid="{2960E692-13C7-4C97-A099-087EA1DF380B}"/>
   </bookViews>
   <sheets>
     <sheet name="kanoga" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -18052,9 +18063,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -18092,7 +18103,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -18198,7 +18209,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18340,7 +18351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -18354,14 +18365,14 @@
       <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
@@ -18371,7 +18382,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -18394,7 +18405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100</v>
       </c>
@@ -18417,7 +18428,7 @@
         <v>6410379</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>200</v>
       </c>
@@ -18440,7 +18451,7 @@
         <v>12703039</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>300</v>
       </c>
@@ -18463,7 +18474,7 @@
         <v>19279553</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>400</v>
       </c>
@@ -18486,7 +18497,7 @@
         <v>25689168</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>500</v>
       </c>
@@ -18509,7 +18520,7 @@
         <v>32223130</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100</v>
       </c>
@@ -18532,7 +18543,7 @@
         <v>6410379</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>100</v>
       </c>
@@ -18555,7 +18566,7 @@
         <v>24464542</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>100</v>
       </c>
@@ -18578,7 +18589,7 @@
         <v>25694526</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>100</v>
       </c>
@@ -18601,7 +18612,7 @@
         <v>25634494</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>100</v>
       </c>
@@ -18642,9 +18653,9 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>279</v>
       </c>
@@ -18682,7 +18693,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>291</v>
       </c>
@@ -18720,7 +18731,7 @@
         <v>1.6723622048356599</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>291</v>
       </c>
@@ -18758,7 +18769,7 @@
         <v>0.96979066113234302</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -18796,7 +18807,7 @@
         <v>0.75199163596444896</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -18834,7 +18845,7 @@
         <v>0.76106094128470403</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -18872,7 +18883,7 @@
         <v>0.64094567494388699</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -18910,7 +18921,7 @@
         <v>0.70609503388023498</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>291</v>
       </c>
@@ -18948,7 +18959,7 @@
         <v>0.70946983906630101</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -18986,7 +18997,7 @@
         <v>0.45675929679730198</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>291</v>
       </c>
@@ -19024,7 +19035,7 @@
         <v>0.29627731775274802</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -19062,7 +19073,7 @@
         <v>0.55942848854649796</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>291</v>
       </c>
@@ -19097,7 +19108,7 @@
         <v>0.18928638591229999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -19132,7 +19143,7 @@
         <v>0.33227693291293597</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -19167,7 +19178,7 @@
         <v>5.4649743627532402E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -19202,7 +19213,7 @@
         <v>0.30688986047026401</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -19237,7 +19248,7 @@
         <v>7.2255442171191606E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -19286,9 +19297,9 @@
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -19305,7 +19316,7 @@
         <v>0.77609300000000003</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -19318,7 +19329,7 @@
         <v>0.77444500000000005</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -19333,7 +19344,7 @@
         <v>0.76588800000000001</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>13</v>
       </c>
@@ -19346,7 +19357,7 @@
         <v>0.755135</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -19361,7 +19372,7 @@
         <v>0.36258299999999999</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>13</v>
       </c>
@@ -19374,7 +19385,7 @@
         <v>0.29983700000000002</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -19389,7 +19400,7 @@
         <v>0.759077</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -19402,7 +19413,7 @@
         <v>0.74467099999999997</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>13</v>
       </c>
@@ -19417,7 +19428,7 @@
         <v>0.41308099999999998</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -19430,7 +19441,7 @@
         <v>0.38218999999999997</v>
       </c>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -19445,7 +19456,7 @@
         <v>0.83130899999999996</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>13</v>
       </c>
@@ -19458,7 +19469,7 @@
         <v>0.82740000000000002</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
@@ -19473,7 +19484,7 @@
         <v>0.65133799999999997</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -19484,7 +19495,7 @@
         <v>0.63061299999999998</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -19501,7 +19512,7 @@
         <v>0.70539700000000005</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -19514,7 +19525,7 @@
         <v>0.703457</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C22" t="s">
         <v>13</v>
       </c>
@@ -19529,7 +19540,7 @@
         <v>0.60690500000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C23" t="s">
         <v>13</v>
       </c>
@@ -19542,7 +19553,7 @@
         <v>0.53219499999999997</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -19557,7 +19568,7 @@
         <v>0.746753</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C25" t="s">
         <v>13</v>
       </c>
@@ -19570,7 +19581,7 @@
         <v>0.68967699999999998</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C26" t="s">
         <v>13</v>
       </c>
@@ -19585,7 +19596,7 @@
         <v>0.77542500000000003</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
         <v>13</v>
       </c>
@@ -19598,7 +19609,7 @@
         <v>0.67270099999999999</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>13</v>
       </c>
@@ -19613,7 +19624,7 @@
         <v>0.77866900000000006</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
         <v>13</v>
       </c>
@@ -19626,7 +19637,7 @@
         <v>0.76502499999999996</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>13</v>
       </c>
@@ -19641,7 +19652,7 @@
         <v>0.58933999999999997</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C31" t="s">
         <v>13</v>
       </c>
@@ -19654,7 +19665,7 @@
         <v>0.55411100000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C32" s="4" t="s">
         <v>16</v>
       </c>
@@ -19669,7 +19680,7 @@
         <v>0.70041500000000001</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -19682,6 +19693,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E30:E31"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="C18:C19"/>
@@ -19698,8 +19711,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19715,12 +19726,12 @@
       <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="12.4140625" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
@@ -19730,7 +19741,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -19753,7 +19764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100</v>
       </c>
@@ -19776,7 +19787,7 @@
         <v>7083607</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>200</v>
       </c>
@@ -19799,7 +19810,7 @@
         <v>14209906</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>300</v>
       </c>
@@ -19822,7 +19833,7 @@
         <v>21232682</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>400</v>
       </c>
@@ -19845,7 +19856,7 @@
         <v>28222780</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>500</v>
       </c>
@@ -19868,7 +19879,7 @@
         <v>35224078</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100</v>
       </c>
@@ -19891,7 +19902,7 @@
         <v>7083607</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>100</v>
       </c>
@@ -19914,7 +19925,7 @@
         <v>19568798</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>100</v>
       </c>
@@ -19937,7 +19948,7 @@
         <v>20252222</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>100</v>
       </c>
@@ -19960,7 +19971,7 @@
         <v>20267454</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>100</v>
       </c>
@@ -20001,12 +20012,12 @@
       <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="8" max="8" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
@@ -20016,7 +20027,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -20039,7 +20050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>100</v>
       </c>
@@ -20062,7 +20073,7 @@
         <v>8838047</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>200</v>
       </c>
@@ -20085,7 +20096,7 @@
         <v>17641291</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>300</v>
       </c>
@@ -20108,7 +20119,7 @@
         <v>26451686</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>400</v>
       </c>
@@ -20131,7 +20142,7 @@
         <v>35427410</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>500</v>
       </c>
@@ -20154,7 +20165,7 @@
         <v>44280373</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>100</v>
       </c>
@@ -20177,7 +20188,7 @@
         <v>8838047</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>100</v>
       </c>
@@ -20200,7 +20211,7 @@
         <v>53797566</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>100</v>
       </c>
@@ -20223,7 +20234,7 @@
         <v>60366366</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>100</v>
       </c>
@@ -20246,7 +20257,7 @@
         <v>60458430</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>100</v>
       </c>
@@ -20287,14 +20298,14 @@
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="19" max="19" width="13.08203125" customWidth="1"/>
-    <col min="28" max="28" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="19" max="19" width="13.125" customWidth="1"/>
+    <col min="28" max="28" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
@@ -20329,7 +20340,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.4">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -20361,7 +20372,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -20444,7 +20455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>100</v>
       </c>
@@ -20536,7 +20547,7 @@
         <v>8.8380469999999995</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>200</v>
       </c>
@@ -20628,7 +20639,7 @@
         <v>17.641290999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>300</v>
       </c>
@@ -20720,7 +20731,7 @@
         <v>26.451685999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>400</v>
       </c>
@@ -20812,7 +20823,7 @@
         <v>35.427410000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>500</v>
       </c>
@@ -20904,7 +20915,7 @@
         <v>44.280372999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>100</v>
       </c>
@@ -20996,7 +21007,7 @@
         <v>8.8380469999999995</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>100</v>
       </c>
@@ -21088,7 +21099,7 @@
         <v>53.797565999999996</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>100</v>
       </c>
@@ -21180,7 +21191,7 @@
         <v>60.366365999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>100</v>
       </c>
@@ -21272,7 +21283,7 @@
         <v>60.45843</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>100</v>
       </c>
@@ -21364,7 +21375,7 @@
         <v>60.476349999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.4">
       <c r="J15">
         <v>6410379</v>
       </c>
@@ -21375,7 +21386,7 @@
         <v>8838047</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.4">
       <c r="J16" s="1">
         <v>12703039</v>
       </c>
@@ -21386,7 +21397,7 @@
         <v>17641291</v>
       </c>
     </row>
-    <row r="17" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J17" s="1">
         <v>19279553</v>
       </c>
@@ -21397,7 +21408,7 @@
         <v>26451686</v>
       </c>
     </row>
-    <row r="18" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J18" s="1">
         <v>25689168</v>
       </c>
@@ -21408,7 +21419,7 @@
         <v>35427410</v>
       </c>
     </row>
-    <row r="19" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J19" s="1">
         <v>32223130</v>
       </c>
@@ -21419,7 +21430,7 @@
         <v>44280373</v>
       </c>
     </row>
-    <row r="20" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J20">
         <v>6410379</v>
       </c>
@@ -21430,7 +21441,7 @@
         <v>8838047</v>
       </c>
     </row>
-    <row r="21" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J21">
         <v>24464542</v>
       </c>
@@ -21441,7 +21452,7 @@
         <v>53797566</v>
       </c>
     </row>
-    <row r="22" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J22">
         <v>25694526</v>
       </c>
@@ -21452,7 +21463,7 @@
         <v>60366366</v>
       </c>
     </row>
-    <row r="23" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J23">
         <v>25634494</v>
       </c>
@@ -21463,7 +21474,7 @@
         <v>60458430</v>
       </c>
     </row>
-    <row r="24" spans="10:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="10:28" x14ac:dyDescent="0.4">
       <c r="J24">
         <v>25634494</v>
       </c>
@@ -21474,7 +21485,7 @@
         <v>60476350</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C51" s="4" t="s">
         <v>0</v>
       </c>
@@ -21486,7 +21497,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -21506,7 +21517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>9</v>
       </c>
@@ -21531,7 +21542,7 @@
         <v>0.31557650000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>10</v>
       </c>
@@ -21585,9 +21596,9 @@
       <selection activeCell="Q3" sqref="Q3:Q88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -21598,7 +21609,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -21609,7 +21620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -21620,7 +21631,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -21631,7 +21642,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -21642,7 +21653,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>22</v>
       </c>
@@ -21653,7 +21664,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -21664,7 +21675,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -21675,7 +21686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -21686,7 +21697,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -21697,7 +21708,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -21708,7 +21719,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>28</v>
       </c>
@@ -21719,7 +21730,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -21730,7 +21741,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -21741,7 +21752,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -21752,7 +21763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -21763,7 +21774,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>33</v>
       </c>
@@ -21774,7 +21785,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -21785,7 +21796,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -21796,7 +21807,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -21807,7 +21818,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -21818,7 +21829,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>38</v>
       </c>
@@ -21829,7 +21840,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -21840,7 +21851,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>40</v>
       </c>
@@ -21851,7 +21862,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>41</v>
       </c>
@@ -21862,7 +21873,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>42</v>
       </c>
@@ -21873,7 +21884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>43</v>
       </c>
@@ -21884,7 +21895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>44</v>
       </c>
@@ -21895,7 +21906,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>45</v>
       </c>
@@ -21906,7 +21917,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -21917,7 +21928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -21928,7 +21939,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>48</v>
       </c>
@@ -21939,7 +21950,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>49</v>
       </c>
@@ -21950,7 +21961,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>50</v>
       </c>
@@ -21961,7 +21972,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -21972,7 +21983,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -21983,7 +21994,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>53</v>
       </c>
@@ -21994,7 +22005,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>54</v>
       </c>
@@ -22005,7 +22016,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>55</v>
       </c>
@@ -22016,7 +22027,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>56</v>
       </c>
@@ -22027,7 +22038,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -22038,7 +22049,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>58</v>
       </c>
@@ -22049,7 +22060,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>59</v>
       </c>
@@ -22060,7 +22071,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>60</v>
       </c>
@@ -22071,7 +22082,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -22082,7 +22093,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>62</v>
       </c>
@@ -22093,7 +22104,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>63</v>
       </c>
@@ -22104,7 +22115,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>64</v>
       </c>
@@ -22115,7 +22126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>65</v>
       </c>
@@ -22126,7 +22137,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>66</v>
       </c>
@@ -22137,7 +22148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>67</v>
       </c>
@@ -22148,7 +22159,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>68</v>
       </c>
@@ -22159,7 +22170,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>69</v>
       </c>
@@ -22170,7 +22181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -22181,7 +22192,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -22192,7 +22203,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>72</v>
       </c>
@@ -22203,7 +22214,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>73</v>
       </c>
@@ -22214,7 +22225,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>74</v>
       </c>
@@ -22225,7 +22236,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>75</v>
       </c>
@@ -22236,7 +22247,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>76</v>
       </c>
@@ -22247,7 +22258,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>77</v>
       </c>
@@ -22258,7 +22269,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>78</v>
       </c>
@@ -22269,7 +22280,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>79</v>
       </c>
@@ -22280,7 +22291,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>80</v>
       </c>
@@ -22291,7 +22302,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>81</v>
       </c>
@@ -22302,7 +22313,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>82</v>
       </c>
@@ -22313,7 +22324,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>83</v>
       </c>
@@ -22324,7 +22335,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>84</v>
       </c>
@@ -22335,7 +22346,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>85</v>
       </c>
@@ -22346,7 +22357,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>86</v>
       </c>
@@ -22357,7 +22368,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>87</v>
       </c>
@@ -22368,7 +22379,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>88</v>
       </c>
@@ -22379,7 +22390,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>89</v>
       </c>
@@ -22390,7 +22401,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>90</v>
       </c>
@@ -22401,7 +22412,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>91</v>
       </c>
@@ -22412,7 +22423,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>92</v>
       </c>
@@ -22423,7 +22434,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>93</v>
       </c>
@@ -22434,7 +22445,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>94</v>
       </c>
@@ -22445,7 +22456,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>95</v>
       </c>
@@ -22456,7 +22467,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>96</v>
       </c>
@@ -22467,7 +22478,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>97</v>
       </c>
@@ -22478,7 +22489,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>98</v>
       </c>
@@ -22489,7 +22500,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>99</v>
       </c>
@@ -22500,7 +22511,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>100</v>
       </c>
@@ -22511,7 +22522,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>101</v>
       </c>
@@ -22522,7 +22533,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>102</v>
       </c>
@@ -22533,7 +22544,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>103</v>
       </c>
@@ -22544,102 +22555,102 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G90" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G91" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G92" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G94" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G95" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.4">
       <c r="G96" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G97" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G100" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G101" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G102" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G103" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G104" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G105" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G106" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G107" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G108" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G109" t="s">
         <v>38</v>
       </c>
@@ -22659,12 +22670,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F2" t="s">
         <v>277</v>
       </c>
@@ -22673,7 +22684,7 @@
         <v>22.82</v>
       </c>
     </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
         <v>278</v>
       </c>
@@ -22681,7 +22692,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="6:7" x14ac:dyDescent="0.4">
       <c r="F4" t="s">
         <v>276</v>
       </c>
@@ -22701,16 +22712,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAFE12F-C730-4FC3-9F63-6FFE8213461F}">
   <dimension ref="C1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="20" max="20" width="12.9140625" customWidth="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="3:23" x14ac:dyDescent="0.4">
       <c r="H1" t="s">
         <v>331</v>
       </c>
@@ -22718,7 +22729,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>313</v>
       </c>
@@ -22759,7 +22770,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>312</v>
       </c>
@@ -22806,7 +22817,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>316</v>
       </c>
@@ -22850,7 +22861,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>317</v>
       </c>
@@ -22894,7 +22905,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -22938,7 +22949,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>316</v>
       </c>
@@ -22964,7 +22975,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>317</v>
       </c>
@@ -22990,7 +23001,7 @@
         <v>0.109</v>
       </c>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -23010,7 +23021,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>316</v>
       </c>
@@ -23027,7 +23038,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:23" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>317</v>
       </c>
@@ -23055,13 +23066,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E365A8DE-0A3C-4204-9B94-61C672A9B6BA}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="71" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:I4"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>325</v>
       </c>
@@ -23099,7 +23110,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>323</v>
       </c>
@@ -23173,7 +23184,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3">
         <v>10</v>
@@ -23194,7 +23205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>25</v>
@@ -23262,7 +23273,7 @@
         <v>0.80222199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5">
         <v>30</v>
@@ -23276,7 +23287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6">
         <v>40</v>
@@ -23290,7 +23301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7">
         <v>50</v>
@@ -23304,7 +23315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8">
         <v>60</v>
@@ -23318,7 +23329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>326</v>
       </c>
@@ -23353,7 +23364,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>323</v>
       </c>
@@ -23424,7 +23435,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13">
         <v>10</v>
@@ -23444,7 +23455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14">
         <v>25</v>
@@ -23511,7 +23522,7 @@
         <v>0.80525899999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15">
         <v>30</v>
@@ -23524,7 +23535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16">
         <v>40</v>
@@ -23537,7 +23548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17">
         <v>50</v>
@@ -23550,7 +23561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18">
         <v>60</v>
@@ -23565,17 +23576,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="U11:Z11"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="S2:S8"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="U11:Z11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23591,9 +23602,9 @@
       <selection activeCell="F2" sqref="F2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F2" t="s">
         <v>317</v>
       </c>
@@ -23601,7 +23612,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
         <v>316</v>
       </c>
@@ -23609,7 +23620,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="4" spans="6:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="6:9" x14ac:dyDescent="0.4">
       <c r="F4" t="s">
         <v>315</v>
       </c>
